--- a/test/Book1.xlsx
+++ b/test/Book1.xlsx
@@ -335,10 +335,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Test Test Test</t>
-  </si>
-  <si>
-    <t>testid123</t>
+    <t>Adam Lyons</t>
+  </si>
+  <si>
+    <t>newtest444</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1451,10 +1451,10 @@
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="3"/>
@@ -1538,7 +1538,9 @@
       <c r="B23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
@@ -1566,7 +1568,9 @@
       <c r="B27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="26">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
@@ -1711,7 +1715,7 @@
       <c r="B44" s="53"/>
       <c r="C44" s="42">
         <f>C17+C18+C21+C22+C23+C24+C25+C26+C27+C28+C29+C30+C31+C32+C33+C35+C36+C37+C39+C40+C42</f>
-        <v>2.4700000000000002</v>
+        <v>3.5700000000000003</v>
       </c>
       <c r="F44" s="43">
         <f>C17</f>
@@ -1731,7 +1735,7 @@
       </c>
       <c r="J44" s="43">
         <f>C23</f>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K44" s="43">
         <f>C24</f>
@@ -1747,7 +1751,7 @@
       </c>
       <c r="N44" s="43">
         <f>C27</f>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O44" s="43">
         <f>C28</f>
@@ -1799,7 +1803,7 @@
       </c>
       <c r="AA44" s="43">
         <f>C44</f>
-        <v>2.4700000000000002</v>
+        <v>3.5700000000000003</v>
       </c>
       <c r="AC44" s="44">
         <f>C46</f>

--- a/test/Book1.xlsx
+++ b/test/Book1.xlsx
@@ -338,7 +338,7 @@
     <t>Adam Lyons</t>
   </si>
   <si>
-    <t>newtest444</t>
+    <t>test5678910</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:AE50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/Book1.xlsx
+++ b/test/Book1.xlsx
@@ -335,10 +335,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Adam Lyons</t>
-  </si>
-  <si>
-    <t>test5678910</t>
+    <t>testid90</t>
+  </si>
+  <si>
+    <t>newname</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:AE50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -1455,7 +1455,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3"/>
     </row>
